--- a/Chiefdom_data.xlsx
+++ b/Chiefdom_data.xlsx
@@ -44,7 +44,7 @@
     <t>IRS</t>
   </si>
   <si>
-    <t>Testing rate</t>
+    <t>Testing_rate</t>
   </si>
   <si>
     <t>dist_prev</t>
@@ -2128,7 +2128,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="H3" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="H4" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="18"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H5" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="H6" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="H7" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H8" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="H9" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H10" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="H11" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H12" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="H13" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="H14" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="H15" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="H16" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="H17" s="30">
         <f ca="1" t="shared" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I17" s="31">
         <v>50</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="H18" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H19" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="38"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="H20" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="H21" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="38"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H22" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="38"/>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H23" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H24" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="38"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H25" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H26" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="38"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H27" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H28" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="38"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H29" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="38"/>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="H30" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="38"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="H31" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="38"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H32" s="36">
         <f ca="1" t="shared" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="38"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="H33" s="42">
         <f ca="1" t="shared" si="0"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="44"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H34" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="I34" s="49">
         <v>20</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="H35" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="18"/>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H36" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="H37" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H38" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="H39" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="H40" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="H41" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="H42" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H43" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="18"/>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H44" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="H45" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="18"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H46" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="H47" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="18"/>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H48" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="H49" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I49" s="49">
         <v>32</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H50" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="18"/>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H51" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H52" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="18"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="H53" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="18"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="H54" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="18"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="H55" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="18"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H56" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="18"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H57" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="18"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="H58" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="18"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="H59" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="18"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H60" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="18"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="H61" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="26"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H62" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I62" s="55">
         <v>40</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="H63" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="H64" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I64" s="55"/>
       <c r="J64" s="55"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="H65" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I65" s="55"/>
       <c r="J65" s="55"/>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H66" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I66" s="55"/>
       <c r="J66" s="55"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="H67" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="H68" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H69" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I69" s="55"/>
       <c r="J69" s="55"/>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H70" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="H71" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I71" s="55"/>
       <c r="J71" s="55"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H72" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I72" s="55"/>
       <c r="J72" s="55"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="H73" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I73" s="55"/>
       <c r="J73" s="55"/>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H74" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="55"/>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="H75" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I75" s="49">
         <v>10</v>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H76" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="18"/>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="H77" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="18"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="H78" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="18"/>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="H79" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="18"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H80" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="18"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H81" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="18"/>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="H82" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="18"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="H83" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="18"/>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H84" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I84" s="25"/>
       <c r="J84" s="26"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="H85" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I85" s="49">
         <v>22</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H86" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="18"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="H88" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="18"/>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="H89" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="18"/>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H90" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="18"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="H91" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="18"/>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H92" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="18"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="H93" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="18"/>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="H94" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="18"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="H95" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="18"/>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="H96" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="18"/>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="H97" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="18"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="H98" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="18"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="H99" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="18"/>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H100" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="18"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="H101" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="18"/>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="H102" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="18"/>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="H103" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="26"/>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="H104" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I104" s="49">
         <v>43</v>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="H105" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="18"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H106" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="18"/>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="H107" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="18"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="H108" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="18"/>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="H109" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="18"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="H110" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="18"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="H111" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="18"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H112" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="18"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H113" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I113" s="25"/>
       <c r="J113" s="26"/>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H114" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I114" s="49">
         <v>55</v>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H115" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="18"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="H116" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I116" s="17"/>
       <c r="J116" s="18"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="H117" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="18"/>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H118" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="I118" s="17"/>
       <c r="J118" s="18"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="H119" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="18"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H120" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="18"/>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="H121" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="18"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H122" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="18"/>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H123" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="18"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="H124" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="18"/>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="H125" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="18"/>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="H126" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="I126" s="25"/>
       <c r="J126" s="26"/>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="H127" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I127" s="49">
         <v>43</v>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H128" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="18"/>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H129" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="18"/>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="H130" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="18"/>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="H131" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="18"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="H132" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="18"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="H133" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="18"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="H134" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="18"/>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="H135" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="I135" s="17"/>
       <c r="J135" s="18"/>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="H136" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I136" s="17"/>
       <c r="J136" s="18"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="H137" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="18"/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="H138" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="18"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H139" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="18"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H140" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I140" s="25"/>
       <c r="J140" s="26"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H141" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="I141" s="49">
         <v>34</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="H142" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="18"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="H143" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="18"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H144" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="18"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H145" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="18"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="H146" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="18"/>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="H147" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="18"/>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H148" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I148" s="17"/>
       <c r="J148" s="18"/>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="H149" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="18"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H150" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="18"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H151" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="18"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="H152" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="18"/>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="H153" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="18"/>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="H154" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="18"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="H155" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I155" s="17"/>
       <c r="J155" s="18"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="H156" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="18"/>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H157" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I157" s="25"/>
       <c r="J157" s="26"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="H158" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I158" s="49">
         <v>37</v>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="H159" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I159" s="17"/>
       <c r="J159" s="18"/>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="H161" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="18"/>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="H162" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="18"/>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="H163" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I163" s="17"/>
       <c r="J163" s="18"/>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="H164" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="18"/>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="H165" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="18"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H166" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I166" s="17"/>
       <c r="J166" s="18"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="H167" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I167" s="17"/>
       <c r="J167" s="18"/>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="H168" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I168" s="17"/>
       <c r="J168" s="18"/>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="H169" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="I169" s="25"/>
       <c r="J169" s="26"/>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="H170" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I170" s="49">
         <v>31</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="H171" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I171" s="17"/>
       <c r="J171" s="18"/>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="H172" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I172" s="17"/>
       <c r="J172" s="18"/>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="H173" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="18"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="H174" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="18"/>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H175" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I175" s="17"/>
       <c r="J175" s="18"/>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H176" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="18"/>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H177" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="18"/>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="H178" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="18"/>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="H179" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="18"/>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="H180" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="18"/>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="H181" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I181" s="17"/>
       <c r="J181" s="18"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="H182" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I182" s="17"/>
       <c r="J182" s="18"/>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="H183" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I183" s="25"/>
       <c r="J183" s="26"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="H184" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I184" s="49">
         <v>65</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="H185" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="18"/>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="H186" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I186" s="17"/>
       <c r="J186" s="18"/>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="H187" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="18"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H188" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="18"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="H189" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="18"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="H190" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="18"/>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="H191" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="18"/>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="H192" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="18"/>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H193" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="18"/>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="H194" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="18"/>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="H195" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I195" s="17"/>
       <c r="J195" s="18"/>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="H196" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I196" s="17"/>
       <c r="J196" s="18"/>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="H197" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I197" s="25"/>
       <c r="J197" s="26"/>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="H198" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I198" s="49">
         <v>34</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="H199" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I199" s="17"/>
       <c r="J199" s="18"/>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="H200" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I200" s="17"/>
       <c r="J200" s="18"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="H201" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I201" s="25"/>
       <c r="J201" s="26"/>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H202" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I202" s="49">
         <v>44</v>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="H203" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="18"/>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="H204" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="18"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="H205" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I205" s="17"/>
       <c r="J205" s="18"/>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="H206" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="18"/>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="H207" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="18"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="H208" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="18"/>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="H209" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I209" s="25"/>
       <c r="J209" s="26"/>
